--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.195614</v>
+        <v>47.25342666666666</v>
       </c>
       <c r="H2">
-        <v>147.586842</v>
+        <v>141.76028</v>
       </c>
       <c r="I2">
-        <v>0.8724243622956617</v>
+        <v>0.7256581002375004</v>
       </c>
       <c r="J2">
-        <v>0.8724243622956616</v>
+        <v>0.7256581002375005</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.891565</v>
+        <v>2.615373333333334</v>
       </c>
       <c r="N2">
-        <v>8.674695</v>
+        <v>7.846120000000001</v>
       </c>
       <c r="O2">
-        <v>0.02565374714703297</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="P2">
-        <v>0.02565374714703297</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="Q2">
-        <v>142.25231559591</v>
+        <v>123.5853520126222</v>
       </c>
       <c r="R2">
-        <v>1280.27084036319</v>
+        <v>1112.2681681136</v>
       </c>
       <c r="S2">
-        <v>0.02238095399524439</v>
+        <v>0.01689544784265398</v>
       </c>
       <c r="T2">
-        <v>0.02238095399524439</v>
+        <v>0.01689544784265398</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.195614</v>
+        <v>47.25342666666666</v>
       </c>
       <c r="H3">
-        <v>147.586842</v>
+        <v>141.76028</v>
       </c>
       <c r="I3">
-        <v>0.8724243622956617</v>
+        <v>0.7256581002375004</v>
       </c>
       <c r="J3">
-        <v>0.8724243622956616</v>
+        <v>0.7256581002375005</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>328.283929</v>
       </c>
       <c r="O3">
-        <v>0.9708367737425379</v>
+        <v>0.9741645848579265</v>
       </c>
       <c r="P3">
-        <v>0.970836773742538</v>
+        <v>0.9741645848579266</v>
       </c>
       <c r="Q3">
-        <v>5383.376484495802</v>
+        <v>5170.846854948902</v>
       </c>
       <c r="R3">
-        <v>48450.38836046222</v>
+        <v>46537.62169454012</v>
       </c>
       <c r="S3">
-        <v>0.8469816532255111</v>
+        <v>0.7069104219666562</v>
       </c>
       <c r="T3">
-        <v>0.8469816532255111</v>
+        <v>0.7069104219666564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.195614</v>
+        <v>47.25342666666666</v>
       </c>
       <c r="H4">
-        <v>147.586842</v>
+        <v>141.76028</v>
       </c>
       <c r="I4">
-        <v>0.8724243622956617</v>
+        <v>0.7256581002375004</v>
       </c>
       <c r="J4">
-        <v>0.8724243622956616</v>
+        <v>0.7256581002375005</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3291073333333334</v>
+        <v>0.110226</v>
       </c>
       <c r="N4">
-        <v>0.987322</v>
+        <v>0.330678</v>
       </c>
       <c r="O4">
-        <v>0.002919815502528088</v>
+        <v>0.0009812688594684432</v>
       </c>
       <c r="P4">
-        <v>0.002919815502528088</v>
+        <v>0.0009812688594684434</v>
       </c>
       <c r="Q4">
-        <v>16.190637335236</v>
+        <v>5.20855620776</v>
       </c>
       <c r="R4">
-        <v>145.715736017124</v>
+        <v>46.87700586984</v>
       </c>
       <c r="S4">
-        <v>0.002547318177814054</v>
+        <v>0.0007120656963840893</v>
       </c>
       <c r="T4">
-        <v>0.002547318177814054</v>
+        <v>0.0007120656963840896</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.195614</v>
+        <v>47.25342666666666</v>
       </c>
       <c r="H5">
-        <v>147.586842</v>
+        <v>141.76028</v>
       </c>
       <c r="I5">
-        <v>0.8724243622956617</v>
+        <v>0.7256581002375004</v>
       </c>
       <c r="J5">
-        <v>0.8724243622956616</v>
+        <v>0.7256581002375005</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06646400000000001</v>
+        <v>0.1463906666666667</v>
       </c>
       <c r="N5">
-        <v>0.199392</v>
+        <v>0.439172</v>
       </c>
       <c r="O5">
-        <v>0.00058966360790105</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="P5">
-        <v>0.00058966360790105</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="Q5">
-        <v>3.269737288896001</v>
+        <v>6.917460632017777</v>
       </c>
       <c r="R5">
-        <v>29.427635600064</v>
+        <v>62.25714568816</v>
       </c>
       <c r="S5">
-        <v>0.0005144368970920326</v>
+        <v>0.0009456913251331908</v>
       </c>
       <c r="T5">
-        <v>0.0005144368970920326</v>
+        <v>0.0009456913251331911</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.05229733333333333</v>
+        <v>47.25342666666666</v>
       </c>
       <c r="H6">
-        <v>0.156892</v>
+        <v>141.76028</v>
       </c>
       <c r="I6">
-        <v>0.0009274295810821058</v>
+        <v>0.7256581002375004</v>
       </c>
       <c r="J6">
-        <v>0.0009274295810821058</v>
+        <v>0.7256581002375005</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.891565</v>
+        <v>0.030104</v>
       </c>
       <c r="N6">
-        <v>8.674695</v>
+        <v>0.09031199999999999</v>
       </c>
       <c r="O6">
-        <v>0.02565374714703297</v>
+        <v>0.0002679959151691798</v>
       </c>
       <c r="P6">
-        <v>0.02565374714703297</v>
+        <v>0.0002679959151691798</v>
       </c>
       <c r="Q6">
-        <v>0.15122113866</v>
+        <v>1.422517156373333</v>
       </c>
       <c r="R6">
-        <v>1.36099024794</v>
+        <v>12.80265440736</v>
       </c>
       <c r="S6">
-        <v>2.379204396975906E-05</v>
+        <v>0.0001944734066730773</v>
       </c>
       <c r="T6">
-        <v>2.379204396975906E-05</v>
+        <v>0.0001944734066730774</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -856,10 +856,10 @@
         <v>0.156892</v>
       </c>
       <c r="I7">
-        <v>0.0009274295810821058</v>
+        <v>0.0008031160114981568</v>
       </c>
       <c r="J7">
-        <v>0.0009274295810821058</v>
+        <v>0.0008031160114981569</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>109.4279763333333</v>
+        <v>2.615373333333334</v>
       </c>
       <c r="N7">
-        <v>328.283929</v>
+        <v>7.846120000000001</v>
       </c>
       <c r="O7">
-        <v>0.9708367737425379</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="P7">
-        <v>0.970836773742538</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="Q7">
-        <v>5.722791354296445</v>
+        <v>0.1367770510044445</v>
       </c>
       <c r="R7">
-        <v>51.505122188668</v>
+        <v>1.23099345904</v>
       </c>
       <c r="S7">
-        <v>0.0009003827423711451</v>
+        <v>1.869889508492554E-05</v>
       </c>
       <c r="T7">
-        <v>0.0009003827423711452</v>
+        <v>1.869889508492554E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -918,10 +918,10 @@
         <v>0.156892</v>
       </c>
       <c r="I8">
-        <v>0.0009274295810821058</v>
+        <v>0.0008031160114981568</v>
       </c>
       <c r="J8">
-        <v>0.0009274295810821058</v>
+        <v>0.0008031160114981569</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3291073333333334</v>
+        <v>109.4279763333333</v>
       </c>
       <c r="N8">
-        <v>0.987322</v>
+        <v>328.283929</v>
       </c>
       <c r="O8">
-        <v>0.002919815502528088</v>
+        <v>0.9741645848579265</v>
       </c>
       <c r="P8">
-        <v>0.002919815502528088</v>
+        <v>0.9741645848579266</v>
       </c>
       <c r="Q8">
-        <v>0.01721143591377778</v>
+        <v>5.722791354296445</v>
       </c>
       <c r="R8">
-        <v>0.154902923224</v>
+        <v>51.505122188668</v>
       </c>
       <c r="S8">
-        <v>2.707923268346663E-06</v>
+        <v>0.0007823671759338555</v>
       </c>
       <c r="T8">
-        <v>2.707923268346663E-06</v>
+        <v>0.0007823671759338558</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,10 +980,10 @@
         <v>0.156892</v>
       </c>
       <c r="I9">
-        <v>0.0009274295810821058</v>
+        <v>0.0008031160114981568</v>
       </c>
       <c r="J9">
-        <v>0.0009274295810821058</v>
+        <v>0.0008031160114981569</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.06646400000000001</v>
+        <v>0.110226</v>
       </c>
       <c r="N9">
-        <v>0.199392</v>
+        <v>0.330678</v>
       </c>
       <c r="O9">
-        <v>0.00058966360790105</v>
+        <v>0.0009812688594684432</v>
       </c>
       <c r="P9">
-        <v>0.00058966360790105</v>
+        <v>0.0009812688594684434</v>
       </c>
       <c r="Q9">
-        <v>0.003475889962666667</v>
+        <v>0.005764525864</v>
       </c>
       <c r="R9">
-        <v>0.031283009664</v>
+        <v>0.05188073277600001</v>
       </c>
       <c r="S9">
-        <v>5.468714728550339E-07</v>
+        <v>7.880727326236415E-07</v>
       </c>
       <c r="T9">
-        <v>5.468714728550339E-07</v>
+        <v>7.880727326236418E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,25 +1027,25 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.896931</v>
+        <v>0.05229733333333333</v>
       </c>
       <c r="H10">
-        <v>5.690793</v>
+        <v>0.156892</v>
       </c>
       <c r="I10">
-        <v>0.03363976345521111</v>
+        <v>0.0008031160114981568</v>
       </c>
       <c r="J10">
-        <v>0.0336397634552111</v>
+        <v>0.0008031160114981569</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.891565</v>
+        <v>0.1463906666666667</v>
       </c>
       <c r="N10">
-        <v>8.674695</v>
+        <v>0.439172</v>
       </c>
       <c r="O10">
-        <v>0.02565374714703297</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="P10">
-        <v>0.02565374714703297</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="Q10">
-        <v>5.485099287015</v>
+        <v>0.007655841491555556</v>
       </c>
       <c r="R10">
-        <v>49.365893583135</v>
+        <v>0.068902573424</v>
       </c>
       <c r="S10">
-        <v>0.0008629859857659859</v>
+        <v>1.046635936263646E-06</v>
       </c>
       <c r="T10">
-        <v>0.0008629859857659859</v>
+        <v>1.046635936263646E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.896931</v>
+        <v>0.05229733333333333</v>
       </c>
       <c r="H11">
-        <v>5.690793</v>
+        <v>0.156892</v>
       </c>
       <c r="I11">
-        <v>0.03363976345521111</v>
+        <v>0.0008031160114981568</v>
       </c>
       <c r="J11">
-        <v>0.0336397634552111</v>
+        <v>0.0008031160114981569</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>109.4279763333333</v>
+        <v>0.030104</v>
       </c>
       <c r="N11">
-        <v>328.283929</v>
+        <v>0.09031199999999999</v>
       </c>
       <c r="O11">
-        <v>0.9708367737425379</v>
+        <v>0.0002679959151691798</v>
       </c>
       <c r="P11">
-        <v>0.970836773742538</v>
+        <v>0.0002679959151691798</v>
       </c>
       <c r="Q11">
-        <v>207.5773205739663</v>
+        <v>0.001574358922666666</v>
       </c>
       <c r="R11">
-        <v>1868.195885165697</v>
+        <v>0.014169230304</v>
       </c>
       <c r="S11">
-        <v>0.03265871942231928</v>
+        <v>2.152318104884701E-07</v>
       </c>
       <c r="T11">
-        <v>0.03265871942231928</v>
+        <v>2.152318104884701E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.896931</v>
+        <v>6.996562666666667</v>
       </c>
       <c r="H12">
-        <v>5.690793</v>
+        <v>20.989688</v>
       </c>
       <c r="I12">
-        <v>0.03363976345521111</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="J12">
-        <v>0.0336397634552111</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3291073333333334</v>
+        <v>2.615373333333334</v>
       </c>
       <c r="N12">
-        <v>0.987322</v>
+        <v>7.846120000000001</v>
       </c>
       <c r="O12">
-        <v>0.002919815502528088</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="P12">
-        <v>0.002919815502528088</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="Q12">
-        <v>0.6242939029273334</v>
+        <v>18.29862342339556</v>
       </c>
       <c r="R12">
-        <v>5.618645126346</v>
+        <v>164.68761081056</v>
       </c>
       <c r="S12">
-        <v>9.822190283790323E-05</v>
+        <v>0.002501618780927775</v>
       </c>
       <c r="T12">
-        <v>9.82219028379032E-05</v>
+        <v>0.002501618780927776</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.896931</v>
+        <v>6.996562666666667</v>
       </c>
       <c r="H13">
-        <v>5.690793</v>
+        <v>20.989688</v>
       </c>
       <c r="I13">
-        <v>0.03363976345521111</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="J13">
-        <v>0.0336397634552111</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.06646400000000001</v>
+        <v>109.4279763333333</v>
       </c>
       <c r="N13">
-        <v>0.199392</v>
+        <v>328.283929</v>
       </c>
       <c r="O13">
-        <v>0.00058966360790105</v>
+        <v>0.9741645848579265</v>
       </c>
       <c r="P13">
-        <v>0.00058966360790105</v>
+        <v>0.9741645848579266</v>
       </c>
       <c r="Q13">
-        <v>0.126077621984</v>
+        <v>765.6196939026836</v>
       </c>
       <c r="R13">
-        <v>1.134698597856</v>
+        <v>6890.577245124153</v>
       </c>
       <c r="S13">
-        <v>1.983614428793767E-05</v>
+        <v>0.1046684529758862</v>
       </c>
       <c r="T13">
-        <v>1.983614428793767E-05</v>
+        <v>0.1046684529758862</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,61 +1284,61 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.197513666666667</v>
+        <v>6.996562666666667</v>
       </c>
       <c r="H14">
-        <v>6.592541</v>
+        <v>20.989688</v>
       </c>
       <c r="I14">
-        <v>0.03897023135594298</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="J14">
-        <v>0.03897023135594298</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>2.891565</v>
+        <v>0.110226</v>
       </c>
       <c r="N14">
-        <v>8.674695</v>
+        <v>0.330678</v>
       </c>
       <c r="O14">
-        <v>0.02565374714703297</v>
+        <v>0.0009812688594684432</v>
       </c>
       <c r="P14">
-        <v>0.02565374714703297</v>
+        <v>0.0009812688594684434</v>
       </c>
       <c r="Q14">
-        <v>6.354253605555</v>
+        <v>0.771203116496</v>
       </c>
       <c r="R14">
-        <v>57.18828244999499</v>
+        <v>6.940828048464001</v>
       </c>
       <c r="S14">
-        <v>0.0009997324614667371</v>
+        <v>0.0001054317669420854</v>
       </c>
       <c r="T14">
-        <v>0.0009997324614667374</v>
+        <v>0.0001054317669420854</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.197513666666667</v>
+        <v>6.996562666666667</v>
       </c>
       <c r="H15">
-        <v>6.592541</v>
+        <v>20.989688</v>
       </c>
       <c r="I15">
-        <v>0.03897023135594298</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="J15">
-        <v>0.03897023135594298</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>109.4279763333333</v>
+        <v>0.1463906666666667</v>
       </c>
       <c r="N15">
-        <v>328.283929</v>
+        <v>0.439172</v>
       </c>
       <c r="O15">
-        <v>0.9708367737425379</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="P15">
-        <v>0.970836773742538</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="Q15">
-        <v>240.4694735081765</v>
+        <v>1.024231473148445</v>
       </c>
       <c r="R15">
-        <v>2164.225261573589</v>
+        <v>9.218083258336</v>
       </c>
       <c r="S15">
-        <v>0.03783373368160398</v>
+        <v>0.0001400234667909251</v>
       </c>
       <c r="T15">
-        <v>0.03783373368160398</v>
+        <v>0.0001400234667909251</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.197513666666667</v>
+        <v>6.996562666666667</v>
       </c>
       <c r="H16">
-        <v>6.592541</v>
+        <v>20.989688</v>
       </c>
       <c r="I16">
-        <v>0.03897023135594298</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="J16">
-        <v>0.03897023135594298</v>
+        <v>0.1074443216298519</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3291073333333334</v>
+        <v>0.030104</v>
       </c>
       <c r="N16">
-        <v>0.987322</v>
+        <v>0.09031199999999999</v>
       </c>
       <c r="O16">
-        <v>0.002919815502528088</v>
+        <v>0.0002679959151691798</v>
       </c>
       <c r="P16">
-        <v>0.002919815502528088</v>
+        <v>0.0002679959151691798</v>
       </c>
       <c r="Q16">
-        <v>0.7232178628002223</v>
+        <v>0.2106245225173333</v>
       </c>
       <c r="R16">
-        <v>6.508960765202</v>
+        <v>1.895620702656</v>
       </c>
       <c r="S16">
-        <v>0.0001137858856501885</v>
+        <v>2.879463930492386E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001137858856501885</v>
+        <v>2.879463930492387E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.197513666666667</v>
+        <v>2.605199666666667</v>
       </c>
       <c r="H17">
-        <v>6.592541</v>
+        <v>7.815599000000001</v>
       </c>
       <c r="I17">
-        <v>0.03897023135594298</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="J17">
-        <v>0.03897023135594298</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.06646400000000001</v>
+        <v>2.615373333333334</v>
       </c>
       <c r="N17">
-        <v>0.199392</v>
+        <v>7.846120000000001</v>
       </c>
       <c r="O17">
-        <v>0.00058966360790105</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="P17">
-        <v>0.00058966360790105</v>
+        <v>0.02328293150331302</v>
       </c>
       <c r="Q17">
-        <v>0.1460555483413334</v>
+        <v>6.813569736208891</v>
       </c>
       <c r="R17">
-        <v>1.314499935072</v>
+        <v>61.32212762588001</v>
       </c>
       <c r="S17">
-        <v>2.297932722208397E-05</v>
+        <v>0.0009314883214367142</v>
       </c>
       <c r="T17">
-        <v>2.297932722208397E-05</v>
+        <v>0.0009314883214367143</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.047190333333333</v>
+        <v>2.605199666666667</v>
       </c>
       <c r="H18">
-        <v>9.141571000000001</v>
+        <v>7.815599000000001</v>
       </c>
       <c r="I18">
-        <v>0.05403821331210213</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="J18">
-        <v>0.05403821331210213</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.891565</v>
+        <v>109.4279763333333</v>
       </c>
       <c r="N18">
-        <v>8.674695</v>
+        <v>328.283929</v>
       </c>
       <c r="O18">
-        <v>0.02565374714703297</v>
+        <v>0.9741645848579265</v>
       </c>
       <c r="P18">
-        <v>0.02565374714703297</v>
+        <v>0.9741645848579266</v>
       </c>
       <c r="Q18">
-        <v>8.811148916205001</v>
+        <v>285.0817274676079</v>
       </c>
       <c r="R18">
-        <v>79.30034024584501</v>
+        <v>2565.735547208471</v>
       </c>
       <c r="S18">
-        <v>0.001386282660586099</v>
+        <v>0.03897374064873586</v>
       </c>
       <c r="T18">
-        <v>0.001386282660586099</v>
+        <v>0.03897374064873587</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,51 +1594,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.047190333333333</v>
+        <v>2.605199666666667</v>
       </c>
       <c r="H19">
-        <v>9.141571000000001</v>
+        <v>7.815599000000001</v>
       </c>
       <c r="I19">
-        <v>0.05403821331210213</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="J19">
-        <v>0.05403821331210213</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>109.4279763333333</v>
+        <v>0.110226</v>
       </c>
       <c r="N19">
-        <v>328.283929</v>
+        <v>0.330678</v>
       </c>
       <c r="O19">
-        <v>0.9708367737425379</v>
+        <v>0.0009812688594684432</v>
       </c>
       <c r="P19">
-        <v>0.970836773742538</v>
+        <v>0.0009812688594684434</v>
       </c>
       <c r="Q19">
-        <v>333.4478716791621</v>
+        <v>0.2871607384580001</v>
       </c>
       <c r="R19">
-        <v>3001.030845112459</v>
+        <v>2.584446646122001</v>
       </c>
       <c r="S19">
-        <v>0.05246228467073229</v>
+        <v>3.925796382875227E-05</v>
       </c>
       <c r="T19">
-        <v>0.0524622846707323</v>
+        <v>3.925796382875228E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.047190333333333</v>
+        <v>2.605199666666667</v>
       </c>
       <c r="H20">
-        <v>9.141571000000001</v>
+        <v>7.815599000000001</v>
       </c>
       <c r="I20">
-        <v>0.05403821331210213</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="J20">
-        <v>0.05403821331210213</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.3291073333333334</v>
+        <v>0.1463906666666667</v>
       </c>
       <c r="N20">
-        <v>0.987322</v>
+        <v>0.439172</v>
       </c>
       <c r="O20">
-        <v>0.002919815502528088</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="P20">
-        <v>0.002919815502528088</v>
+        <v>0.00130321886412303</v>
       </c>
       <c r="Q20">
-        <v>1.002852684762445</v>
+        <v>0.3813769160031112</v>
       </c>
       <c r="R20">
-        <v>9.025674162862002</v>
+        <v>3.432392244028</v>
       </c>
       <c r="S20">
-        <v>0.0001577816129575955</v>
+        <v>5.213832940383331E-05</v>
       </c>
       <c r="T20">
-        <v>0.0001577816129575955</v>
+        <v>5.213832940383332E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1718,46 +1718,356 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.047190333333333</v>
+        <v>2.605199666666667</v>
       </c>
       <c r="H21">
-        <v>9.141571000000001</v>
+        <v>7.815599000000001</v>
       </c>
       <c r="I21">
-        <v>0.05403821331210213</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="J21">
-        <v>0.05403821331210213</v>
+        <v>0.0400073470689964</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.030104</v>
+      </c>
+      <c r="N21">
+        <v>0.09031199999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.0002679959151691798</v>
+      </c>
+      <c r="P21">
+        <v>0.0002679959151691798</v>
+      </c>
+      <c r="Q21">
+        <v>0.07842693076533333</v>
+      </c>
+      <c r="R21">
+        <v>0.705842376888</v>
+      </c>
+      <c r="S21">
+        <v>1.072180559124669E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.07218055912467E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.210544666666665</v>
+      </c>
+      <c r="H22">
+        <v>24.631634</v>
+      </c>
+      <c r="I22">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="J22">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.615373333333334</v>
+      </c>
+      <c r="N22">
+        <v>7.846120000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.02328293150331302</v>
+      </c>
+      <c r="P22">
+        <v>0.02328293150331302</v>
+      </c>
+      <c r="Q22">
+        <v>21.47363957334222</v>
+      </c>
+      <c r="R22">
+        <v>193.26275616008</v>
+      </c>
+      <c r="S22">
+        <v>0.002935677663209626</v>
+      </c>
+      <c r="T22">
+        <v>0.002935677663209628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.210544666666665</v>
+      </c>
+      <c r="H23">
+        <v>24.631634</v>
+      </c>
+      <c r="I23">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="J23">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>109.4279763333333</v>
+      </c>
+      <c r="N23">
+        <v>328.283929</v>
+      </c>
+      <c r="O23">
+        <v>0.9741645848579265</v>
+      </c>
+      <c r="P23">
+        <v>0.9741645848579266</v>
+      </c>
+      <c r="Q23">
+        <v>898.4632874677761</v>
+      </c>
+      <c r="R23">
+        <v>8086.169587209985</v>
+      </c>
+      <c r="S23">
+        <v>0.1228296020907142</v>
+      </c>
+      <c r="T23">
+        <v>0.1228296020907143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.210544666666665</v>
+      </c>
+      <c r="H24">
+        <v>24.631634</v>
+      </c>
+      <c r="I24">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="J24">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M21">
-        <v>0.06646400000000001</v>
-      </c>
-      <c r="N21">
-        <v>0.199392</v>
-      </c>
-      <c r="O21">
-        <v>0.00058966360790105</v>
-      </c>
-      <c r="P21">
-        <v>0.00058966360790105</v>
-      </c>
-      <c r="Q21">
-        <v>0.2025284583146667</v>
-      </c>
-      <c r="R21">
-        <v>1.822756124832</v>
-      </c>
-      <c r="S21">
-        <v>3.186436782614069E-05</v>
-      </c>
-      <c r="T21">
-        <v>3.186436782614069E-05</v>
+      <c r="M24">
+        <v>0.110226</v>
+      </c>
+      <c r="N24">
+        <v>0.330678</v>
+      </c>
+      <c r="O24">
+        <v>0.0009812688594684432</v>
+      </c>
+      <c r="P24">
+        <v>0.0009812688594684434</v>
+      </c>
+      <c r="Q24">
+        <v>0.9050154964279999</v>
+      </c>
+      <c r="R24">
+        <v>8.145139467851999</v>
+      </c>
+      <c r="S24">
+        <v>0.0001237253595808926</v>
+      </c>
+      <c r="T24">
+        <v>0.0001237253595808926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.210544666666665</v>
+      </c>
+      <c r="H25">
+        <v>24.631634</v>
+      </c>
+      <c r="I25">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="J25">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.1463906666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.439172</v>
+      </c>
+      <c r="O25">
+        <v>0.00130321886412303</v>
+      </c>
+      <c r="P25">
+        <v>0.00130321886412303</v>
+      </c>
+      <c r="Q25">
+        <v>1.201947107449778</v>
+      </c>
+      <c r="R25">
+        <v>10.817523967048</v>
+      </c>
+      <c r="S25">
+        <v>0.0001643191068588166</v>
+      </c>
+      <c r="T25">
+        <v>0.0001643191068588166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.210544666666665</v>
+      </c>
+      <c r="H26">
+        <v>24.631634</v>
+      </c>
+      <c r="I26">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="J26">
+        <v>0.126087115052153</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.030104</v>
+      </c>
+      <c r="N26">
+        <v>0.09031199999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.0002679959151691798</v>
+      </c>
+      <c r="P26">
+        <v>0.0002679959151691798</v>
+      </c>
+      <c r="Q26">
+        <v>0.2471702366453332</v>
+      </c>
+      <c r="R26">
+        <v>2.224532129807999</v>
+      </c>
+      <c r="S26">
+        <v>3.379083178944341E-05</v>
+      </c>
+      <c r="T26">
+        <v>3.379083178944342E-05</v>
       </c>
     </row>
   </sheetData>
